--- a/biology/Botanique/Euphorbia_virosa/Euphorbia_virosa.xlsx
+++ b/biology/Botanique/Euphorbia_virosa/Euphorbia_virosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia virosa, connue aussi sous son nom d'Euphorbe vireuse, est une espèce de plantes à fleurs de la famille des Euphorbiaceae formant des buissons larges, denses et vigoureux. Cette euphorbe originaire d'Afrique est une plante succulente qui ressemble à un cactus colonnaire, par convergence évolutive, pour survivre dans des zones arides.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« La tige courte et partiellement enterrée, de 30 cm de diamètre, porte de nombreuses branches dressées, le plus souvent non ramifiées, de 5 à 6 cm d'épaisseur, segmentées, parfois spiralées, à 3 angles dans la partie inférieure et 5-8 angles dans la partie supérieure.
 Une marge cornée continue et grisâtre, de 4 mm de large, couvre leurs arêtes sinueuses sur lesquelles poussent des épines stipulaires regroupées par paires, d'abord rouges et luisantes, devenant brunes ou grisâtres avec l'âge, espacées de 6 à 12 mm, divergentes et mesurant de 4 à 13 mm…L'inflorescence, en cyme subsessile, de 4-6 mm, se développe à l'apex des branches entre les paires d'épines. Les cyathes d'1 cm de diamètre sont jaunes et leurs glandes nectarifères elliptiques attirent de petits pollinisateurs comme les fourmis et les abeilles.
-Les fruits en capsules arrondies d'1 à 1, 5 cm, d'abord brun rougeâtre et charnus, devenant secs à maturité, renferment de petites graines de 5 mm de diamètre finement rugueuses[2]. »
+Les fruits en capsules arrondies d'1 à 1, 5 cm, d'abord brun rougeâtre et charnus, devenant secs à maturité, renferment de petites graines de 5 mm de diamètre finement rugueuses. »
 			Spécimen in situ, en Namibie.
 			Jeunes épines.
 			Tige âgée.
@@ -549,9 +563,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Angola, Namibie et Afrique du Sud[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Angola, Namibie et Afrique du Sud.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 1799 par le botaniste allemand Carl Ludwig Willdenow (1765-1812). L'épithète spécifique virosa signifie « vénéneux, toxique »[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1799 par le botaniste allemand Carl Ludwig Willdenow (1765-1812). L'épithète spécifique virosa signifie « vénéneux, toxique ».
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 avril 2017)[5], World Checklist of Selected Plant Families (WCSP)  (30 avril 2017)[6] et Tropicos                                           (30 avril 2017)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 avril 2017), World Checklist of Selected Plant Families (WCSP)  (30 avril 2017) et Tropicos                                           (30 avril 2017) :
 sous-espèce Euphorbia virosa subsp. arenicola L.C. Leach
 sous-espèce Euphorbia virosa subsp. virosa</t>
         </is>
